--- a/Data/Forecasts/IDA2/2023-12-03_exo['y_DA'].xlsx
+++ b/Data/Forecasts/IDA2/2023-12-03_exo['y_DA'].xlsx
@@ -454,7 +454,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>201.2425079345703</v>
+        <v>192.06396484375</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45263.47916666666</v>
       </c>
       <c r="B3" t="n">
-        <v>200.4780426025391</v>
+        <v>190.4872436523438</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45263.5</v>
       </c>
       <c r="B4" t="n">
-        <v>196.7090606689453</v>
+        <v>185.0630950927734</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45263.52083333334</v>
       </c>
       <c r="B5" t="n">
-        <v>204.3825378417969</v>
+        <v>186.1680908203125</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="B6" t="n">
-        <v>202.110595703125</v>
+        <v>183.5380554199219</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45263.5625</v>
       </c>
       <c r="B7" t="n">
-        <v>198.2227935791016</v>
+        <v>177.8310546875</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>196.5002899169922</v>
+        <v>179.5807495117188</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="B9" t="n">
-        <v>205.2742309570312</v>
+        <v>185.1297760009766</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45263.625</v>
       </c>
       <c r="B10" t="n">
-        <v>214.6544342041016</v>
+        <v>195.8791961669922</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45263.64583333334</v>
       </c>
       <c r="B11" t="n">
-        <v>227.8311614990234</v>
+        <v>212.3919525146484</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45263.66666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>229.3216400146484</v>
+        <v>214.0627136230469</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45263.6875</v>
       </c>
       <c r="B13" t="n">
-        <v>263.7752990722656</v>
+        <v>246.5023345947266</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45263.70833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>296.1632995605469</v>
+        <v>258.9142456054688</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45263.72916666666</v>
       </c>
       <c r="B15" t="n">
-        <v>294.3691711425781</v>
+        <v>255.2961578369141</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45263.75</v>
       </c>
       <c r="B16" t="n">
-        <v>265.1058349609375</v>
+        <v>224.3261871337891</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45263.77083333334</v>
       </c>
       <c r="B17" t="n">
-        <v>245.832763671875</v>
+        <v>205.7127838134766</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45263.79166666666</v>
       </c>
       <c r="B18" t="n">
-        <v>218.0377349853516</v>
+        <v>191.6334838867188</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45263.8125</v>
       </c>
       <c r="B19" t="n">
-        <v>207.2317504882812</v>
+        <v>179.4331512451172</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45263.83333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>188.2977752685547</v>
+        <v>167.5816040039062</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45263.85416666666</v>
       </c>
       <c r="B21" t="n">
-        <v>175.1274566650391</v>
+        <v>151.3641662597656</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45263.875</v>
       </c>
       <c r="B22" t="n">
-        <v>178.886474609375</v>
+        <v>152.9140014648438</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45263.89583333334</v>
       </c>
       <c r="B23" t="n">
-        <v>155.2943725585938</v>
+        <v>137.9481811523438</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45263.91666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>153.8161010742188</v>
+        <v>136.4194030761719</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45263.9375</v>
       </c>
       <c r="B25" t="n">
-        <v>142.2214813232422</v>
+        <v>125.0732574462891</v>
       </c>
     </row>
   </sheetData>
